--- a/OPSCO_Web/ImportFile/Ops Model Tool_updated.xlsx
+++ b/OPSCO_Web/ImportFile/Ops Model Tool_updated.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martiab\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert Rick\Documents\GitHub\PROTO_Ops\OPSCO_Web\ImportFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10095"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="19200" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
           <t>ALBERT:
 #3 #4
 ALREADY COMPLETED AS OF 02/08 AND FOR DEPLOYMENT TO WEB SERVER (B04WEBD04)
-TARGET DEPLOYMENT DATE 02/09</t>
+TARGET DEPLOYMENT DATE 02/13</t>
         </r>
         <r>
           <rPr>
@@ -92,9 +92,8 @@
           </rPr>
           <t>ALBERT:
 #5 #6 #7 #8 #9
-STATUS: IN PROGRESS
-TARGET FINISH DATE: 02/09
-TARGET DEPLOYMENT DATE: 02/12
+STATUS: COMPLETED ON 02/09
+TARGET DEPLOYMENT DATE: 02/13
 #9 FILTERS
 - USE FILTER TABLE FUNCTIONALITY OF DATATABLE FRAMEWORK</t>
         </r>
@@ -305,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,7 +336,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,12 +369,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -418,7 +411,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,7 +728,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,10 +762,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="7">
@@ -793,10 +785,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="7">
@@ -862,10 +854,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4">
@@ -885,10 +877,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4">
@@ -908,10 +900,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="4">
@@ -931,10 +923,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="4">
@@ -954,10 +946,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="7">
@@ -977,10 +969,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1000,10 +992,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="7">

--- a/OPSCO_Web/ImportFile/Ops Model Tool_updated.xlsx
+++ b/OPSCO_Web/ImportFile/Ops Model Tool_updated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="19200" windowHeight="10095"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="19200" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,10 +808,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4">
@@ -831,10 +831,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4">

--- a/OPSCO_Web/ImportFile/Ops Model Tool_updated.xlsx
+++ b/OPSCO_Web/ImportFile/Ops Model Tool_updated.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert Rick\Documents\GitHub\PROTO_Ops\OPSCO_Web\ImportFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martiab\Documents\Projects\OperationsScorecard\OPSCO_Web\ImportFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,7 +336,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +373,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -386,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -411,6 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,10 +861,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4">
@@ -877,10 +884,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4">
@@ -1015,10 +1022,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="7">
@@ -1038,10 +1045,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="7">

--- a/OPSCO_Web/ImportFile/Ops Model Tool_updated.xlsx
+++ b/OPSCO_Web/ImportFile/Ops Model Tool_updated.xlsx
@@ -336,7 +336,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,12 +373,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -392,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -417,7 +411,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,10 +1015,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="7">
@@ -1045,10 +1038,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="7">
@@ -1100,8 +1093,6 @@
     <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="B1:G12">
     <sortState ref="B2:G15">

--- a/OPSCO_Web/ImportFile/Ops Model Tool_updated.xlsx
+++ b/OPSCO_Web/ImportFile/Ops Model Tool_updated.xlsx
@@ -363,13 +363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B11" sqref="A11:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,10 +762,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="7">
@@ -785,10 +785,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="7">
@@ -808,10 +808,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4">
@@ -831,10 +831,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4">
@@ -854,10 +854,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4">
@@ -877,10 +877,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4">
@@ -969,10 +969,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -992,10 +992,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="7">

--- a/OPSCO_Web/ImportFile/Ops Model Tool_updated.xlsx
+++ b/OPSCO_Web/ImportFile/Ops Model Tool_updated.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martiab\Documents\Projects\OperationsScorecard\OPSCO_Web\ImportFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martiab\Documents\GitHub\PROTO_Ops\OPSCO_Web\ImportFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="19200" windowHeight="10095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,19 +357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -410,7 +404,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B11" sqref="A11:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,10 +755,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="7">
@@ -785,10 +778,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="7">
@@ -808,10 +801,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4">
@@ -831,10 +824,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4">
@@ -854,10 +847,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4">
@@ -877,10 +870,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4">
@@ -992,10 +985,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="7">
@@ -1015,10 +1008,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="7">
@@ -1038,10 +1031,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="7">
